--- a/scrap excel.xlsx
+++ b/scrap excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="47">
   <si>
     <t>FullBody</t>
   </si>
@@ -74,72 +74,33 @@
     <t>Oblique</t>
   </si>
   <si>
-    <t>Clean &amp; Jerk</t>
-  </si>
-  <si>
     <t>Burpee</t>
   </si>
   <si>
     <t>Squat &amp; Press</t>
   </si>
   <si>
-    <t>Bench</t>
-  </si>
-  <si>
-    <t>Incline Bench</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
     <t>Rear Delt Fly</t>
   </si>
   <si>
-    <t>French Press</t>
-  </si>
-  <si>
     <t>Skull Crusher</t>
   </si>
   <si>
     <t>Push Up</t>
   </si>
   <si>
-    <t>Straight Bar Dip</t>
-  </si>
-  <si>
-    <t>HSPU</t>
-  </si>
-  <si>
     <t>Pike Push Up</t>
   </si>
   <si>
-    <t>W. Pull Up</t>
-  </si>
-  <si>
     <t>Chin Up</t>
   </si>
   <si>
-    <t>W. Chin Up</t>
-  </si>
-  <si>
     <t>Pull Up</t>
   </si>
   <si>
-    <t>Bent Over Row</t>
-  </si>
-  <si>
-    <t>Ring Row</t>
-  </si>
-  <si>
-    <t>Front Lever</t>
-  </si>
-  <si>
     <t>Bicep Curl</t>
   </si>
   <si>
-    <t>Preacher Curl</t>
-  </si>
-  <si>
     <t>Close Grip Chin Up</t>
   </si>
   <si>
@@ -149,21 +110,12 @@
     <t>Pause Squat</t>
   </si>
   <si>
-    <t>Dead Lift</t>
-  </si>
-  <si>
     <t>Bridge</t>
   </si>
   <si>
     <t>Calf Raise</t>
   </si>
   <si>
-    <t>Dip</t>
-  </si>
-  <si>
-    <t>ATG Squat</t>
-  </si>
-  <si>
     <t>Lunge</t>
   </si>
   <si>
@@ -171,6 +123,48 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>8 Count Body Builder</t>
+  </si>
+  <si>
+    <t>Farmers Carry</t>
+  </si>
+  <si>
+    <t>Sandbag Lift</t>
+  </si>
+  <si>
+    <t>DB Bench</t>
+  </si>
+  <si>
+    <t>Incline DB Bench</t>
+  </si>
+  <si>
+    <t>DB Overhead Press</t>
+  </si>
+  <si>
+    <t>Bench Dip</t>
+  </si>
+  <si>
+    <t>Tricep Extension</t>
+  </si>
+  <si>
+    <t>Chin Up Hold</t>
+  </si>
+  <si>
+    <t>Pull Up Hold</t>
+  </si>
+  <si>
+    <t>Australian Pull Up</t>
+  </si>
+  <si>
+    <t>Bench Row</t>
+  </si>
+  <si>
+    <t>Back Raise</t>
+  </si>
+  <si>
+    <t>Close Grip Chin Up Hold</t>
   </si>
 </sst>
 </file>
@@ -299,6 +293,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,14 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,20 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
     <col min="10" max="10" width="9.140625" style="4"/>
@@ -617,65 +612,65 @@
     <col min="12" max="12" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,526 +707,918 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="e">
-        <f>CONCATENATE(A2:A18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
